--- a/data/trans_orig/Q23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Estudios-trans_orig.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +666,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>14,57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>18,64</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>18,43</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,87</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>16,55</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>16,61</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,16</t>
         </is>
       </c>
     </row>
@@ -649,22 +734,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>13,71; 15,32</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 15,96</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>17,88; 19,86</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>17,71; 19,31</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 15,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 18,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>16,29; 16,9</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>16,3; 16,94</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 15,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 16,46</t>
         </is>
       </c>
     </row>
@@ -691,22 +806,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>15,74</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16,56</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>16,91</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>17,39</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,97</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,24</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>16,63</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>16,91</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,8</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,81</t>
         </is>
       </c>
     </row>
@@ -729,22 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>15,27; 16,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 16,83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>16,68; 17,17</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>17,09; 17,75</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 17,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 17,5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>16,49; 16,79</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>16,75; 17,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 16,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 17,01</t>
         </is>
       </c>
     </row>
@@ -771,22 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>15,91</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17,94</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>18,05</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>17,74</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,77</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,01</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>17,59</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>17,63</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,25</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,98</t>
         </is>
       </c>
     </row>
@@ -809,22 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>14,84; 16,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 18,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>17,53; 18,88</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>17,32; 18,59</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 18,68</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 18,52</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>17,26; 17,98</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>17,31; 18,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,52; 17,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 18,38</t>
         </is>
       </c>
     </row>
@@ -851,22 +1086,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>17,47</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>17,65</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,94</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,45</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>16,75</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>16,92</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -889,22 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>15,13; 16,04</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 16,78</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>17,2; 17,75</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>17,38; 17,95</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 16,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 17,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>16,62; 16,89</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>16,78; 17,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,25; 16,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 17,06</t>
         </is>
       </c>
     </row>
@@ -918,13 +1213,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Estudios-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,15 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según edad a la que empezó a fumar tabaco</t>
+          <t>Edad media de inicio en el consumo de tabaco/marihuana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -666,52 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>16,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>18,43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>18,64</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,43</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>16,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>16,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,61</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,45</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>16,16</t>
+          <t>16,84</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 16,08</t>
+          <t>15,56; 16,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,21</t>
+          <t>15,66; 16,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,71; 15,32</t>
+          <t>15,7; 16,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,21; 15,96</t>
+          <t>17,91; 19,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 19,86</t>
+          <t>17,75; 19,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,31</t>
+          <t>17,77; 19,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 15,67</t>
+          <t>16,25; 16,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,16; 18,5</t>
+          <t>16,3; 16,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,9</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>16,3; 16,94</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>13,75; 15,12</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>15,85; 16,46</t>
+          <t>16,42; 17,37</t>
         </is>
       </c>
     </row>
@@ -806,52 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,74</t>
+          <t>16,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,56</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>17,39</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17,54</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>16,91</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,39</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,97</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,91</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>15,8</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,81</t>
+          <t>16,96</t>
         </is>
       </c>
     </row>
@@ -869,57 +800,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 16,74</t>
+          <t>16,39; 16,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,27; 16,47</t>
+          <t>16,31; 16,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 16,83</t>
+          <t>16,67; 17,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,17</t>
+          <t>17,1; 17,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,75</t>
+          <t>17,28; 17,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 17,11</t>
+          <t>16,48; 16,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,5</t>
+          <t>16,76; 17,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 16,79</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,75; 17,1</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>15,34; 16,35</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,5; 17,01</t>
+          <t>16,8; 17,13</t>
         </is>
       </c>
     </row>
@@ -946,52 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>18,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,05</t>
+          <t>17,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>17,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>17,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>17,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>17,63</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>16,25</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>17,98</t>
+          <t>17,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,65</t>
+          <t>16,9; 17,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 18,09</t>
+          <t>17,08; 18,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,84; 16,61</t>
+          <t>16,7; 17,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,55</t>
+          <t>17,48; 18,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,88</t>
+          <t>17,31; 18,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,59</t>
+          <t>16,87; 17,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 18,68</t>
+          <t>17,25; 18,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,52</t>
+          <t>17,29; 18,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,98</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>17,31; 18,07</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>15,52; 17,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>17,66; 18,38</t>
+          <t>16,88; 17,5</t>
         </is>
       </c>
     </row>
@@ -1086,17 +972,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1106,32 +992,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,94</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,64</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
+          <t>16,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,21; 16,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,62</t>
+          <t>16,33; 16,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 16,04</t>
+          <t>16,32; 16,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,78</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,39; 17,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,42; 17,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 16,92</t>
+          <t>16,62; 16,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 17,68</t>
+          <t>16,79; 17,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 17,08</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15,25; 16,03</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,63; 17,06</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1068,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
